--- a/PainAnalysis.xlsx
+++ b/PainAnalysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\RealmOfTheMadAdam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F140BC5-1BD7-4CD9-99D5-B1EBAE4F7BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4432BC-4F0B-4036-A088-FDA8315A1956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E89F3B8-11B8-4E0D-80C8-FC552A892173}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E89F3B8-11B8-4E0D-80C8-FC552A892173}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Results" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
   <si>
     <t>NumEntities</t>
   </si>
@@ -106,6 +107,18 @@
   </si>
   <si>
     <t>Num Entities:</t>
+  </si>
+  <si>
+    <t>Average HPC Time</t>
+  </si>
+  <si>
+    <t>Average % of total Update</t>
+  </si>
+  <si>
+    <t>HPC Average Update</t>
+  </si>
+  <si>
+    <t>HPC Average Render</t>
   </si>
 </sst>
 </file>
@@ -313,7 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -652,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C051B85-7190-45E1-92BC-DFC3FDBECB1C}">
-  <dimension ref="B1:O57"/>
+  <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,16 +683,20 @@
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -698,19 +716,23 @@
       <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4">
-        <v>600</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4">
-        <v>4</v>
-      </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>600</v>
       </c>
@@ -730,23 +752,25 @@
       <c r="H3" s="7">
         <v>138600</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K3" s="3">
+        <f>Data!F3</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="3">
+        <f>(G3+G10+G17+G24+G31)/5</f>
+        <v>144300</v>
+      </c>
+      <c r="M3" s="3">
+        <f xml:space="preserve"> ( Data!H6 + Data!H13 + Data!H20 + Data!H27 + Data!H34 ) / 5</f>
+        <v>0.4099973295234875</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <f>(Data!H35 +Data!H28+Data!H21+Data!H14+Data!H7)/5</f>
+        <v>0.59000267047651245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6">
         <f>C3 /1000000000</f>
@@ -766,23 +790,25 @@
         <f>H3 /1000000000</f>
         <v>1.3860000000000001E-4</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="3">
+        <f>Data!B3</f>
+        <v>600</v>
+      </c>
+      <c r="L4" s="3">
+        <f>(C3+C10+C17+C24+C31)/5</f>
+        <v>13576740</v>
+      </c>
+      <c r="M4" s="3">
+        <f xml:space="preserve"> ( Data!D6 + Data!D13 + Data!D20 + Data!D27 + Data!D34 ) / 5</f>
+        <v>0.94508920332584245</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <f>(Data!D35 +Data!D28+Data!D21+Data!D14+Data!D7)/5</f>
+        <v>5.4910796674157492E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -800,19 +826,6 @@
         <f xml:space="preserve"> G4 + H4</f>
         <v>2.4800000000000001E-4</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="6">
-        <v>7497100</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>5900</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -832,19 +845,6 @@
         <f xml:space="preserve"> G4 / H5</f>
         <v>0.44112903225806449</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="6">
-        <v>6669500</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>6300</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -863,19 +863,6 @@
       <c r="H7" s="9">
         <f xml:space="preserve"> H4 / H5</f>
         <v>0.55887096774193545</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="6">
-        <v>6680500</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>7000</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -886,19 +873,6 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="6">
-        <v>6501900</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>9800</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -916,19 +890,6 @@
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="6">
-        <v>11520100</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>10600</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
@@ -946,54 +907,26 @@
       <c r="H10" s="7">
         <v>137000</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6">
-        <f t="shared" ref="C11" si="0">C10 /1000000000</f>
+        <f>C10 /1000000000</f>
         <v>1.3244300000000001E-2</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" ref="D11" si="1">D10 /1000000000</f>
+        <f>D10 /1000000000</f>
         <v>1.0771000000000001E-3</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="15"/>
       <c r="G11" s="6">
-        <f t="shared" ref="G11" si="2">G10 /1000000000</f>
+        <f>G10 /1000000000</f>
         <v>1.121E-4</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" ref="H11" si="3">H10 /1000000000</f>
+        <f>H10 /1000000000</f>
         <v>1.37E-4</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="6">
-        <v>5700</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>6100</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -1002,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" ref="D12" si="4" xml:space="preserve"> C11 + D11</f>
+        <f xml:space="preserve"> C11 + D11</f>
         <v>1.4321400000000001E-2</v>
       </c>
       <c r="E12" s="11"/>
@@ -1011,21 +944,8 @@
         <v>4</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" ref="H12" si="5" xml:space="preserve"> G11 + H11</f>
+        <f xml:space="preserve"> G11 + H11</f>
         <v>2.4909999999999998E-4</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="6">
-        <v>5700</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>7800</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -1034,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13" si="6" xml:space="preserve"> C11 / D12</f>
+        <f xml:space="preserve"> C11 / D12</f>
         <v>0.92479087240074287</v>
       </c>
       <c r="E13" s="11"/>
@@ -1043,21 +963,8 @@
         <v>5</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" ref="H13" si="7" xml:space="preserve"> G11 / H12</f>
+        <f xml:space="preserve"> G11 / H12</f>
         <v>0.45002007226013652</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="6">
-        <v>11000</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>11100</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1077,19 +984,6 @@
       <c r="H14" s="9">
         <f xml:space="preserve"> H11 / H12</f>
         <v>0.54997992773986348</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="6">
-        <v>5900</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>10700</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1100,19 +994,6 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="6">
-        <v>5800</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>5800</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
@@ -1130,23 +1011,8 @@
       <c r="H16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6">
         <v>14331500</v>
@@ -1162,61 +1028,35 @@
       <c r="H17" s="7">
         <v>269400</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="6">
-        <v>600</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1300</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6">
-        <f t="shared" ref="C18" si="8">C17 /1000000000</f>
+        <f>C17 /1000000000</f>
         <v>1.43315E-2</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" ref="D18" si="9">D17 /1000000000</f>
+        <f>D17 /1000000000</f>
         <v>7.4629999999999998E-4</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="15"/>
       <c r="G18" s="6">
-        <f t="shared" ref="G18" si="10">G17 /1000000000</f>
+        <f>G17 /1000000000</f>
         <v>1.338E-4</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18" si="11">H17 /1000000000</f>
+        <f>H17 /1000000000</f>
         <v>2.6939999999999999E-4</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="6">
-        <v>600</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>500</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19" si="12" xml:space="preserve"> C18 + D18</f>
+        <f xml:space="preserve"> C18 + D18</f>
         <v>1.5077800000000001E-2</v>
       </c>
       <c r="E19" s="11"/>
@@ -1225,30 +1065,17 @@
         <v>4</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19" si="13" xml:space="preserve"> G18 + H18</f>
+        <f xml:space="preserve"> G18 + H18</f>
         <v>4.0319999999999999E-4</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="6">
-        <v>600</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>500</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20" si="14" xml:space="preserve"> C18 / D19</f>
+        <f xml:space="preserve"> C18 / D19</f>
         <v>0.95050338908859378</v>
       </c>
       <c r="E20" s="11"/>
@@ -1257,30 +1084,17 @@
         <v>5</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" ref="H20" si="15" xml:space="preserve"> G18 / H19</f>
+        <f xml:space="preserve"> G18 / H19</f>
         <v>0.33184523809523808</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="6">
-        <v>700</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>500</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ref="D21" si="16" xml:space="preserve"> D18 / D19</f>
+        <f xml:space="preserve"> D18 / D19</f>
         <v>4.9496610911406169E-2</v>
       </c>
       <c r="E21" s="11"/>
@@ -1289,24 +1103,11 @@
         <v>6</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" ref="H21" si="17" xml:space="preserve"> H18 / H19</f>
+        <f xml:space="preserve"> H18 / H19</f>
         <v>0.66815476190476186</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="6">
-        <v>1400</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>600</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1315,23 +1116,8 @@
       <c r="G22" s="15"/>
       <c r="H22" s="7"/>
       <c r="I22" s="2"/>
-      <c r="K22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="13" t="s">
         <v>2</v>
@@ -1347,21 +1133,8 @@
       <c r="H23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="6">
-        <v>9583600</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>36700</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6">
         <v>13241500</v>
@@ -1377,61 +1150,35 @@
       <c r="H24" s="7">
         <v>298000</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="6">
-        <v>8603900</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>59000</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="6">
-        <f t="shared" ref="C25" si="18">C24 /1000000000</f>
+        <f>C24 /1000000000</f>
         <v>1.32415E-2</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" ref="D25" si="19">D24 /1000000000</f>
+        <f>D24 /1000000000</f>
         <v>7.228E-4</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="6">
-        <f t="shared" ref="G25" si="20">G24 /1000000000</f>
+        <f>G24 /1000000000</f>
         <v>2.24E-4</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" ref="H25" si="21">H24 /1000000000</f>
+        <f>H24 /1000000000</f>
         <v>2.9799999999999998E-4</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="6">
-        <v>7647500</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>34400</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" ref="D26" si="22" xml:space="preserve"> C25 + D25</f>
+        <f xml:space="preserve"> C25 + D25</f>
         <v>1.3964299999999999E-2</v>
       </c>
       <c r="E26" s="11"/>
@@ -1440,30 +1187,17 @@
         <v>4</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26" si="23" xml:space="preserve"> G25 + H25</f>
+        <f xml:space="preserve"> G25 + H25</f>
         <v>5.22E-4</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="6">
-        <v>9853700</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>24200</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27" si="24" xml:space="preserve"> C25 / D26</f>
+        <f xml:space="preserve"> C25 / D26</f>
         <v>0.94823943914123876</v>
       </c>
       <c r="E27" s="11"/>
@@ -1472,30 +1206,17 @@
         <v>5</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" ref="H27" si="25" xml:space="preserve"> G25 / H26</f>
+        <f xml:space="preserve"> G25 / H26</f>
         <v>0.42911877394636017</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="6">
-        <v>10274800</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>22800</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" ref="D28" si="26" xml:space="preserve"> D25 / D26</f>
+        <f xml:space="preserve"> D25 / D26</f>
         <v>5.1760560858761274E-2</v>
       </c>
       <c r="E28" s="11"/>
@@ -1504,26 +1225,11 @@
         <v>6</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28" si="27" xml:space="preserve"> H25 / H26</f>
+        <f xml:space="preserve"> H25 / H26</f>
         <v>0.57088122605363978</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1531,21 +1237,8 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="7"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="6">
-        <v>15100</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>7600</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="13" t="s">
         <v>2</v>
@@ -1561,21 +1254,8 @@
       <c r="H30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="6">
-        <v>14800</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>15500</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6">
         <v>14096100</v>
@@ -1591,24 +1271,11 @@
       <c r="H31" s="7">
         <v>215200</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="6">
-        <v>65600</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>8800</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6">
-        <f t="shared" ref="C32" si="28">C31 /1000000000</f>
+        <f>C31 /1000000000</f>
         <v>1.40961E-2</v>
       </c>
       <c r="D32" s="7">
@@ -1618,34 +1285,21 @@
       <c r="E32" s="11"/>
       <c r="F32" s="15"/>
       <c r="G32" s="6">
-        <f t="shared" ref="G32:G35" si="29">G31 /1000000000</f>
+        <f>G31 /1000000000</f>
         <v>1.4219999999999999E-4</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" ref="H32:H35" si="30">H31 /1000000000</f>
+        <f>H31 /1000000000</f>
         <v>2.152E-4</v>
       </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="6">
-        <v>20800</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>7500</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" ref="D33" si="31" xml:space="preserve"> C32 + D32</f>
+        <f xml:space="preserve"> C32 + D32</f>
         <v>1.4783000000000001E-2</v>
       </c>
       <c r="E33" s="11"/>
@@ -1654,30 +1308,17 @@
         <v>4</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" ref="H33:H35" si="32" xml:space="preserve"> G32 + H32</f>
+        <f xml:space="preserve"> G32 + H32</f>
         <v>3.5740000000000001E-4</v>
       </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="6">
-        <v>15600</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>7600</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" ref="D34" si="33" xml:space="preserve"> C32 / D33</f>
+        <f xml:space="preserve"> C32 / D33</f>
         <v>0.95353446526415475</v>
       </c>
       <c r="E34" s="11"/>
@@ -1686,32 +1327,17 @@
         <v>5</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34" si="34" xml:space="preserve"> G32 / H33</f>
+        <f xml:space="preserve"> G32 / H33</f>
         <v>0.39787353105763845</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" ref="D35" si="35" xml:space="preserve"> D32 / D33</f>
+        <f xml:space="preserve"> D32 / D33</f>
         <v>4.6465534735845228E-2</v>
       </c>
       <c r="E35" s="12"/>
@@ -1720,359 +1346,12 @@
         <v>6</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" ref="H35" si="36" xml:space="preserve"> H32 / H33</f>
+        <f xml:space="preserve"> H32 / H33</f>
         <v>0.60212646894236144</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="6">
-        <v>2400</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>1100</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="6">
-        <v>2500</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>1300</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K37" s="11"/>
-      <c r="L37" s="6">
-        <v>2400</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>1700</v>
-      </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K38" s="11"/>
-      <c r="L38" s="6">
-        <v>24000</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>700</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K39" s="11"/>
-      <c r="L39" s="6">
-        <v>2500</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6">
-        <v>1100</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K41" s="11"/>
-      <c r="L41" s="6">
-        <v>29500</v>
-      </c>
-      <c r="M41" s="7">
-        <v>411300</v>
-      </c>
-      <c r="N41" s="6">
-        <v>39000</v>
-      </c>
-      <c r="O41" s="7">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K42" s="11"/>
-      <c r="L42" s="6">
-        <v>32500</v>
-      </c>
-      <c r="M42" s="7">
-        <v>356100</v>
-      </c>
-      <c r="N42" s="6">
-        <v>39500</v>
-      </c>
-      <c r="O42" s="7">
-        <v>56600</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K43" s="11"/>
-      <c r="L43" s="6">
-        <v>40200</v>
-      </c>
-      <c r="M43" s="7">
-        <v>434400</v>
-      </c>
-      <c r="N43" s="6">
-        <v>35700</v>
-      </c>
-      <c r="O43" s="7">
-        <v>64600</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K44" s="11"/>
-      <c r="L44" s="6">
-        <v>45900</v>
-      </c>
-      <c r="M44" s="7">
-        <v>370700</v>
-      </c>
-      <c r="N44" s="6">
-        <v>26400</v>
-      </c>
-      <c r="O44" s="7">
-        <v>116800</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K45" s="11"/>
-      <c r="L45" s="6">
-        <v>29300</v>
-      </c>
-      <c r="M45" s="7">
-        <v>372200</v>
-      </c>
-      <c r="N45" s="6">
-        <v>18400</v>
-      </c>
-      <c r="O45" s="7">
-        <v>106700</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K47" s="11"/>
-      <c r="L47" s="6">
-        <v>72600</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <v>500</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K48" s="11"/>
-      <c r="L48" s="6">
-        <v>68600</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>300</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K49" s="11"/>
-      <c r="L49" s="6">
-        <v>116500</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>400</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K50" s="11"/>
-      <c r="L50" s="6">
-        <v>226200</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>400</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K51" s="11"/>
-      <c r="L51" s="6">
-        <v>296400</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>400</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K53" s="11"/>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7">
-        <v>32600</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7">
-        <v>28900</v>
-      </c>
-    </row>
-    <row r="54" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K54" s="11"/>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7">
-        <v>32700</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7">
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="55" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K55" s="11"/>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7">
-        <v>31600</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7">
-        <v>75300</v>
-      </c>
-    </row>
-    <row r="56" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K56" s="11"/>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>31400</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7">
-        <v>30800</v>
-      </c>
-    </row>
-    <row r="57" spans="11:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K57" s="12"/>
-      <c r="L57" s="8">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9">
-        <v>33100</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0</v>
-      </c>
-      <c r="O57" s="9">
-        <v>31100</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2080,11 +1359,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163BD05-7252-4E69-B395-88E4FA476DDE}">
+  <dimension ref="B1:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4">
+        <v>600</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="6">
+        <v>7497100</v>
+      </c>
+      <c r="D5" s="15">
+        <f>(C5+C6+C7+C8+C9) / 5</f>
+        <v>7773820</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5900</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="6">
+        <v>6669500</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6300</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="6">
+        <v>6680500</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7000</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="6">
+        <v>6501900</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9800</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="6">
+        <v>11520100</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10600</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D11" s="15">
+        <f>(C11+C12+C13+C14+C15) / 5</f>
+        <v>6820</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6100</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7800</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="6">
+        <v>11000</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>11100</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="6">
+        <v>5900</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10700</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="6">
+        <v>5800</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5800</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="6">
+        <v>600</v>
+      </c>
+      <c r="D17" s="15">
+        <f>(C17+C18+C19+C20+C21) / 5</f>
+        <v>780</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1300</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="6">
+        <v>600</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>500</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="6">
+        <v>600</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>500</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="6">
+        <v>700</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>500</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="6">
+        <v>1400</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>600</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="6">
+        <v>9583600</v>
+      </c>
+      <c r="D23" s="15">
+        <f>(C23+C24+C25+C26+C27) / 5</f>
+        <v>9192700</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>36700</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="6">
+        <v>8603900</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>59000</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="6">
+        <v>7647500</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>34400</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="6">
+        <v>9853700</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>24200</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="6">
+        <v>10274800</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>22800</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="6">
+        <v>15100</v>
+      </c>
+      <c r="D29" s="15">
+        <f>(C29+C30+C31+C32+C33) / 5</f>
+        <v>26380</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>7600</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="6">
+        <v>14800</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>15500</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="6">
+        <v>65600</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>8800</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="6">
+        <v>20800</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>7500</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="6">
+        <v>15600</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>7600</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="6">
+        <v>2400</v>
+      </c>
+      <c r="D35" s="15">
+        <f>(C35+C36+C37+C38+C39) / 5</f>
+        <v>6760</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1100</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1300</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="6">
+        <v>2400</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1700</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="6">
+        <v>24000</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>700</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1100</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="6">
+        <v>29500</v>
+      </c>
+      <c r="D41" s="15">
+        <f>(C41+C42+C43+C44+C45) / 5</f>
+        <v>35480</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="7">
+        <v>411300</v>
+      </c>
+      <c r="G41" s="6">
+        <v>39000</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="7">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="6">
+        <v>32500</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="7">
+        <v>356100</v>
+      </c>
+      <c r="G42" s="6">
+        <v>39500</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="7">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="6">
+        <v>40200</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="7">
+        <v>434400</v>
+      </c>
+      <c r="G43" s="6">
+        <v>35700</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="7">
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="6">
+        <v>45900</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="7">
+        <v>370700</v>
+      </c>
+      <c r="G44" s="6">
+        <v>26400</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="7">
+        <v>116800</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="6">
+        <v>29300</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="7">
+        <v>372200</v>
+      </c>
+      <c r="G45" s="6">
+        <v>18400</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="7">
+        <v>106700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="6">
+        <v>72600</v>
+      </c>
+      <c r="D47" s="15">
+        <f>(C47+C48+C49+C50+C51) / 5</f>
+        <v>156060</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>500</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="6">
+        <v>68600</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>300</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="6">
+        <v>116500</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>400</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="6">
+        <v>226200</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>400</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="6">
+        <v>296400</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>400</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <f>(C53+C54+C55+C56+C57) / 5</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="7">
+        <v>32600</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="7">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="7">
+        <v>32700</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="7">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="7">
+        <v>31600</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="7">
+        <v>75300</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="7">
+        <v>31400</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="7">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="9">
+        <v>33100</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="9">
+        <v>31100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31174D89-BC06-4B6F-823E-968D606460FD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,48 +2514,7 @@
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <f>Data!F3</f>
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <f xml:space="preserve"> ( Data!H6 + Data!H13 + Data!H20 + Data!H27 + Data!H34 ) / 5</f>
-        <v>0.4099973295234875</v>
-      </c>
-      <c r="C2" s="3">
-        <f>(Data!H35 +Data!H28+Data!H21+Data!H14+Data!H7)/5</f>
-        <v>0.59000267047651245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <f>Data!B3</f>
-        <v>600</v>
-      </c>
-      <c r="B3" s="3">
-        <f xml:space="preserve"> ( Data!D6 + Data!D13 + Data!D20 + Data!D27 + Data!D34 ) / 5</f>
-        <v>0.94508920332584245</v>
-      </c>
-      <c r="C3" s="3">
-        <f>(Data!D35 +Data!D28+Data!D21+Data!D14+Data!D7)/5</f>
-        <v>5.4910796674157492E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>